--- a/第三轮建模/数据.xlsx
+++ b/第三轮建模/数据.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39776\Documents\GitHub\Mathematical_Modelling\第三轮建模\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GitHub\Mathematical_Modelling\第三轮建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565" activeTab="1" xr2:uid="{A7D536F4-C5FE-44B0-A489-9AE19E4C7019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8570" activeTab="1" xr2:uid="{A7D536F4-C5FE-44B0-A489-9AE19E4C7019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$531</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="34">
   <si>
     <t>外伤</t>
   </si>
@@ -116,6 +116,42 @@
     <t>平均闲置时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>青光眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白内障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白内障（双眼）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60天内的病例个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后观察</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每周病例数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>术前准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +212,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,22 +534,22 @@
   <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,7 +578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -566,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -593,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -647,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -701,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -728,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -782,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -809,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -836,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -863,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -890,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -917,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -944,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -971,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -998,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1025,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1052,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1079,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1106,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1133,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1160,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1187,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1214,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1241,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1268,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1295,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1322,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1349,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1376,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1403,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1430,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1457,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1484,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1511,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1538,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1565,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1592,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1619,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1646,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1673,7 +1712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1700,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1727,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1754,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1781,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1808,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1835,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1889,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1916,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1943,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1970,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1997,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2024,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2051,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2078,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2105,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2132,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2159,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2186,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2213,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2240,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2267,7 +2306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2294,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2321,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2348,7 +2387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2375,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2402,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2429,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2456,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2483,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2510,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2537,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2564,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2591,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2618,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2645,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2672,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2699,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2726,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2753,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2780,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2807,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2834,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2861,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2888,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2915,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2942,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2969,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2996,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3023,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3050,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3077,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3104,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3131,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3158,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3185,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3212,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3239,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3293,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3320,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3347,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3374,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3401,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3428,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3455,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3482,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3509,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3536,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3563,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3590,7 +3629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3617,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3644,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3671,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3725,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3752,7 +3791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3779,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3806,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3833,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3860,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3887,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3914,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3941,7 +3980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3968,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3995,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4022,7 +4061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4049,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4076,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4103,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4130,7 +4169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4157,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4184,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4211,7 +4250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4238,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4265,7 +4304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4292,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4319,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4346,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4373,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4400,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4427,7 +4466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4454,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4481,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4508,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4535,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4562,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4589,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4616,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4643,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4670,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4697,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4724,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4778,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4805,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4832,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4859,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4886,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4913,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4940,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4967,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4994,7 +5033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5021,7 +5060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5048,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5075,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5102,7 +5141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5129,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5156,7 +5195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5183,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5210,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5237,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5264,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5291,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5318,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5345,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5372,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5399,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5426,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5453,7 +5492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5480,7 +5519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5507,7 +5546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5534,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5561,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5588,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5615,7 +5654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5642,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5669,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5696,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5723,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5750,7 +5789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5777,7 +5816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5804,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5831,7 +5870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5858,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5885,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5912,7 +5951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5939,7 +5978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5966,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5993,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6020,7 +6059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6047,7 +6086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6074,7 +6113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6101,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6128,7 +6167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6155,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6182,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6209,7 +6248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6236,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6263,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6290,7 +6329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6317,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6344,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6371,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6398,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6425,7 +6464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6452,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6479,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6506,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6533,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6560,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6587,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6614,7 +6653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6641,7 +6680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6668,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6695,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6722,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6749,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6776,7 +6815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6803,7 +6842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6830,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6857,7 +6896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6884,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6911,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6938,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6965,7 +7004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6992,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7019,7 +7058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7046,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7073,7 +7112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7100,7 +7139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7127,7 +7166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7154,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7181,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7208,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7235,7 +7274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7262,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7289,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7316,7 +7355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7343,7 +7382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7370,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7397,7 +7436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7424,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7451,7 +7490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7478,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7505,7 +7544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7532,7 +7571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7559,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7586,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7613,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7640,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7667,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7694,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7721,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7748,7 +7787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7775,7 +7814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7802,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7829,7 +7868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7856,7 +7895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7883,7 +7922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7910,7 +7949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7937,7 +7976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7964,7 +8003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7991,7 +8030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8018,7 +8057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8045,7 +8084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8072,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8099,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8126,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8153,7 +8192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8180,7 +8219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8207,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8234,7 +8273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8261,7 +8300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8288,7 +8327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8315,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8342,7 +8381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8369,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8396,7 +8435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8423,7 +8462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8450,7 +8489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8477,7 +8516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8504,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8531,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8558,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8585,7 +8624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8612,7 +8651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8639,7 +8678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -8666,7 +8705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -8693,7 +8732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -8720,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -8747,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -8774,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -8801,7 +8840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -8828,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -8855,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8882,7 +8921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8909,7 +8948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8936,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8963,7 +9002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8990,7 +9029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9017,7 +9056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -9044,7 +9083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -9071,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -9098,7 +9137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -9125,7 +9164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -9152,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -9179,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -9206,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -9233,7 +9272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -9260,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -9287,7 +9326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -9314,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -9341,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -9368,7 +9407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -9395,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -9422,7 +9461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -9449,7 +9488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -9476,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -9503,7 +9542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -9530,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -9557,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -9584,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -9611,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -9638,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -9665,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -9692,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -9719,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -9746,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -9773,7 +9812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -9800,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -9827,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -9854,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -9881,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -9908,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -9935,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -9962,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1</v>
       </c>
@@ -9989,7 +10028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2</v>
       </c>
@@ -10016,7 +10055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3</v>
       </c>
@@ -10043,7 +10082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>4</v>
       </c>
@@ -10070,7 +10109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>5</v>
       </c>
@@ -10097,7 +10136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>6</v>
       </c>
@@ -10124,7 +10163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7</v>
       </c>
@@ -10151,7 +10190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>8</v>
       </c>
@@ -10178,7 +10217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9</v>
       </c>
@@ -10205,7 +10244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10</v>
       </c>
@@ -10232,7 +10271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>11</v>
       </c>
@@ -10259,7 +10298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>12</v>
       </c>
@@ -10286,7 +10325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>13</v>
       </c>
@@ -10313,7 +10352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>14</v>
       </c>
@@ -10340,7 +10379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>15</v>
       </c>
@@ -10367,7 +10406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>16</v>
       </c>
@@ -10394,7 +10433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>17</v>
       </c>
@@ -10421,7 +10460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>18</v>
       </c>
@@ -10448,7 +10487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>19</v>
       </c>
@@ -10475,7 +10514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>20</v>
       </c>
@@ -10502,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>21</v>
       </c>
@@ -10529,7 +10568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>22</v>
       </c>
@@ -10556,7 +10595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>23</v>
       </c>
@@ -10583,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>24</v>
       </c>
@@ -10610,7 +10649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>25</v>
       </c>
@@ -10637,7 +10676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>26</v>
       </c>
@@ -10664,7 +10703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>27</v>
       </c>
@@ -10691,7 +10730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>28</v>
       </c>
@@ -10718,7 +10757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>29</v>
       </c>
@@ -10745,7 +10784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>30</v>
       </c>
@@ -10772,7 +10811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>31</v>
       </c>
@@ -10799,7 +10838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>32</v>
       </c>
@@ -10826,7 +10865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>33</v>
       </c>
@@ -10853,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>34</v>
       </c>
@@ -10880,7 +10919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>35</v>
       </c>
@@ -10907,7 +10946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>36</v>
       </c>
@@ -10934,7 +10973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>37</v>
       </c>
@@ -10961,7 +11000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>38</v>
       </c>
@@ -10988,7 +11027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>39</v>
       </c>
@@ -11015,7 +11054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>40</v>
       </c>
@@ -11042,7 +11081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>41</v>
       </c>
@@ -11069,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>42</v>
       </c>
@@ -11096,7 +11135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>43</v>
       </c>
@@ -11123,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>44</v>
       </c>
@@ -11150,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>45</v>
       </c>
@@ -11177,7 +11216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>46</v>
       </c>
@@ -11204,7 +11243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>47</v>
       </c>
@@ -11231,7 +11270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>48</v>
       </c>
@@ -11258,7 +11297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>49</v>
       </c>
@@ -11285,7 +11324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>50</v>
       </c>
@@ -11312,7 +11351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>51</v>
       </c>
@@ -11339,7 +11378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>52</v>
       </c>
@@ -11366,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>53</v>
       </c>
@@ -11393,7 +11432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>54</v>
       </c>
@@ -11420,7 +11459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>55</v>
       </c>
@@ -11447,7 +11486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>56</v>
       </c>
@@ -11474,7 +11513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>57</v>
       </c>
@@ -11501,7 +11540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>58</v>
       </c>
@@ -11528,7 +11567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>59</v>
       </c>
@@ -11555,7 +11594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>60</v>
       </c>
@@ -11582,7 +11621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>61</v>
       </c>
@@ -11609,7 +11648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>62</v>
       </c>
@@ -11636,7 +11675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>63</v>
       </c>
@@ -11663,7 +11702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>64</v>
       </c>
@@ -11690,7 +11729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>65</v>
       </c>
@@ -11717,7 +11756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>66</v>
       </c>
@@ -11744,7 +11783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>67</v>
       </c>
@@ -11771,7 +11810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>68</v>
       </c>
@@ -11798,7 +11837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>69</v>
       </c>
@@ -11825,7 +11864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>70</v>
       </c>
@@ -11852,7 +11891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>71</v>
       </c>
@@ -11879,7 +11918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>72</v>
       </c>
@@ -11906,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>73</v>
       </c>
@@ -11933,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>74</v>
       </c>
@@ -11960,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>75</v>
       </c>
@@ -11987,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>76</v>
       </c>
@@ -12014,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>77</v>
       </c>
@@ -12041,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>78</v>
       </c>
@@ -12068,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>79</v>
       </c>
@@ -12095,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1</v>
       </c>
@@ -12122,7 +12161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2</v>
       </c>
@@ -12149,7 +12188,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>3</v>
       </c>
@@ -12176,7 +12215,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>4</v>
       </c>
@@ -12203,7 +12242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>5</v>
       </c>
@@ -12230,7 +12269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>6</v>
       </c>
@@ -12257,7 +12296,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>7</v>
       </c>
@@ -12284,7 +12323,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>8</v>
       </c>
@@ -12311,7 +12350,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>9</v>
       </c>
@@ -12338,7 +12377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>10</v>
       </c>
@@ -12365,7 +12404,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>11</v>
       </c>
@@ -12392,7 +12431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>12</v>
       </c>
@@ -12419,7 +12458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>13</v>
       </c>
@@ -12446,7 +12485,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>14</v>
       </c>
@@ -12473,7 +12512,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>15</v>
       </c>
@@ -12500,7 +12539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>16</v>
       </c>
@@ -12527,7 +12566,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>17</v>
       </c>
@@ -12554,7 +12593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>18</v>
       </c>
@@ -12581,7 +12620,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>19</v>
       </c>
@@ -12608,7 +12647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>20</v>
       </c>
@@ -12635,7 +12674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>21</v>
       </c>
@@ -12662,7 +12701,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>22</v>
       </c>
@@ -12689,7 +12728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>23</v>
       </c>
@@ -12716,7 +12755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>24</v>
       </c>
@@ -12743,7 +12782,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>25</v>
       </c>
@@ -12770,7 +12809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>26</v>
       </c>
@@ -12797,7 +12836,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>27</v>
       </c>
@@ -12824,7 +12863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>28</v>
       </c>
@@ -12851,7 +12890,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>29</v>
       </c>
@@ -12878,7 +12917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>30</v>
       </c>
@@ -12905,7 +12944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>31</v>
       </c>
@@ -12932,7 +12971,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>32</v>
       </c>
@@ -12959,7 +12998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>33</v>
       </c>
@@ -12986,7 +13025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>34</v>
       </c>
@@ -13013,7 +13052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>35</v>
       </c>
@@ -13040,7 +13079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>36</v>
       </c>
@@ -13067,7 +13106,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>37</v>
       </c>
@@ -13094,7 +13133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>38</v>
       </c>
@@ -13121,7 +13160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>39</v>
       </c>
@@ -13148,7 +13187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>40</v>
       </c>
@@ -13175,7 +13214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>41</v>
       </c>
@@ -13202,7 +13241,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>42</v>
       </c>
@@ -13229,7 +13268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>43</v>
       </c>
@@ -13256,7 +13295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>44</v>
       </c>
@@ -13283,7 +13322,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>45</v>
       </c>
@@ -13310,7 +13349,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>46</v>
       </c>
@@ -13337,7 +13376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>47</v>
       </c>
@@ -13364,7 +13403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>48</v>
       </c>
@@ -13391,7 +13430,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>49</v>
       </c>
@@ -13418,7 +13457,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>50</v>
       </c>
@@ -13445,7 +13484,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>51</v>
       </c>
@@ -13472,7 +13511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>52</v>
       </c>
@@ -13499,7 +13538,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>53</v>
       </c>
@@ -13526,7 +13565,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>54</v>
       </c>
@@ -13553,7 +13592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>55</v>
       </c>
@@ -13580,7 +13619,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>56</v>
       </c>
@@ -13607,7 +13646,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>57</v>
       </c>
@@ -13634,7 +13673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>58</v>
       </c>
@@ -13661,7 +13700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>59</v>
       </c>
@@ -13688,7 +13727,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>60</v>
       </c>
@@ -13715,7 +13754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>61</v>
       </c>
@@ -13742,7 +13781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>62</v>
       </c>
@@ -13769,7 +13808,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>63</v>
       </c>
@@ -13796,7 +13835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>64</v>
       </c>
@@ -13823,7 +13862,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>65</v>
       </c>
@@ -13850,7 +13889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>66</v>
       </c>
@@ -13877,7 +13916,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>67</v>
       </c>
@@ -13904,7 +13943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>68</v>
       </c>
@@ -13931,7 +13970,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>69</v>
       </c>
@@ -13958,7 +13997,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>70</v>
       </c>
@@ -13985,7 +14024,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>71</v>
       </c>
@@ -14012,7 +14051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>72</v>
       </c>
@@ -14039,7 +14078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>73</v>
       </c>
@@ -14066,7 +14105,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>74</v>
       </c>
@@ -14093,7 +14132,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>75</v>
       </c>
@@ -14120,7 +14159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>76</v>
       </c>
@@ -14147,7 +14186,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>77</v>
       </c>
@@ -14174,7 +14213,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>78</v>
       </c>
@@ -14201,7 +14240,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>79</v>
       </c>
@@ -14228,7 +14267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>80</v>
       </c>
@@ -14255,7 +14294,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>81</v>
       </c>
@@ -14282,7 +14321,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>82</v>
       </c>
@@ -14309,7 +14348,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>83</v>
       </c>
@@ -14336,7 +14375,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>84</v>
       </c>
@@ -14363,7 +14402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>85</v>
       </c>
@@ -14390,7 +14429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>86</v>
       </c>
@@ -14417,7 +14456,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>87</v>
       </c>
@@ -14444,7 +14483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>88</v>
       </c>
@@ -14471,7 +14510,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>89</v>
       </c>
@@ -14498,7 +14537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>90</v>
       </c>
@@ -14525,7 +14564,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>91</v>
       </c>
@@ -14552,7 +14591,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>92</v>
       </c>
@@ -14579,7 +14618,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>93</v>
       </c>
@@ -14606,7 +14645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>94</v>
       </c>
@@ -14633,7 +14672,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>95</v>
       </c>
@@ -14660,7 +14699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>96</v>
       </c>
@@ -14687,7 +14726,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>97</v>
       </c>
@@ -14714,7 +14753,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>98</v>
       </c>
@@ -14741,7 +14780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>99</v>
       </c>
@@ -14768,7 +14807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>100</v>
       </c>
@@ -14795,7 +14834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>101</v>
       </c>
@@ -14822,7 +14861,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>102</v>
       </c>
@@ -14850,11 +14889,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G531" xr:uid="{D727C9C2-C7E7-4874-A308-97069E31BD8C}">
+  <autoFilter ref="A1:I531" xr:uid="{42456CDB-C713-4F1E-A12E-5DCE6C9E327E}">
     <filterColumn colId="1">
       <filters>
         <filter val="白内障"/>
-        <filter val="白内障(双眼)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14866,18 +14904,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883C84B-F78D-45BE-B73A-1AD4BC870CB9}">
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1:CX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -14999,7 +15037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15220,7 +15258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15471,7 +15509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -15779,7 +15817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -15949,7 +15987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -15958,7 +15996,7 @@
         <v>8.0769230769230766</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -15967,7 +16005,7 @@
         <v>2.9350649350649349</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -15976,13 +16014,146 @@
         <v>10.168316831683168</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <f>AVERAGE(B5:BD5)</f>
         <v>6.0363636363636362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>B12/7</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>B12/530</f>
+        <v>0.18867924528301888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="0">B13/7</f>
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="1">B13/530</f>
+        <v>0.25094339622641509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.11886792452830189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>170</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.32075471698113206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.12075471698113208</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>75.714285714285708</v>
       </c>
     </row>
   </sheetData>

--- a/第三轮建模/数据.xlsx
+++ b/第三轮建模/数据.xlsx
@@ -14904,10 +14904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883C84B-F78D-45BE-B73A-1AD4BC870CB9}">
-  <dimension ref="A1:CX17"/>
+  <dimension ref="A1:CX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16152,8 +16152,27 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
-        <f>SUM(C12:C16)</f>
-        <v>75.714285714285708</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/第三轮建模/数据.xlsx
+++ b/第三轮建模/数据.xlsx
@@ -14907,7 +14907,7 @@
   <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16048,8 +16048,8 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>B12/7</f>
-        <v>14.285714285714286</v>
+        <f>B12/60*7</f>
+        <v>11.666666666666668</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -16070,8 +16070,8 @@
         <v>133</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C16" si="0">B13/7</f>
-        <v>19</v>
+        <f t="shared" ref="C13:C16" si="0">B13/60*7</f>
+        <v>15.516666666666667</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>24.285714285714285</v>
+        <v>19.833333333333336</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>9.1428571428571423</v>
+        <v>7.4666666666666668</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -16152,31 +16152,37 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>57</v>
+        <f>B12/60*3</f>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>76</v>
+        <f t="shared" ref="C18:C21" si="2">B13/60*3</f>
+        <v>6.65</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>3.1500000000000004</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21">
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>